--- a/xlsx/MySQL_intext.xlsx
+++ b/xlsx/MySQL_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>MySQL</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>軟件開發</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_MySQL</t>
+    <t>软件开发</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_MySQL</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87%E5%85%AC%E5%8F%B8</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%81%AF%E5%BC%8F%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>關聯式資料庫</t>
+    <t>关联式资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%93%E5%BA%93_(%E7%89%88%E6%9C%AC%E6%8E%A7%E5%88%B6)</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%BA%90%E7%A2%BC</t>
   </si>
   <si>
-    <t>開放源碼</t>
+    <t>开放源码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%81%AF%E5%BC%8F%E8%B3%87%E6%96%99%E5%BA%AB%E7%AE%A1%E7%90%86%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>關聯式資料庫管理系統</t>
+    <t>关联式资料库管理系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>昇陽微系統</t>
+    <t>昇阳微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/C%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>C語言</t>
+    <t>C语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C%2B%2B</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%AD%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>編譯器</t>
+    <t>编译器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AIX</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/API</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BA%94%E7%A2%BC</t>
   </si>
   <si>
-    <t>大五碼</t>
+    <t>大五码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Shift_JIS</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
   </si>
   <si>
-    <t>網頁伺服器</t>
+    <t>网页伺服器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%BA%90%E7%A2%BC%E8%BB%9F%E4%BB%B6</t>
   </si>
   <si>
-    <t>開放源碼軟件</t>
+    <t>开放源码软件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%AE%A2</t>
@@ -437,9 +437,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Mediawiki</t>
   </si>
   <si>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%94%AF_(%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>分支 (計算機科學)</t>
+    <t>分支 (计算机科学)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Drizzle_(database_server)</t>
@@ -695,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E8%AA%8D%E8%AD%89Java%E7%A8%8B%E5%BC%8F%E5%93%A1</t>
   </si>
   <si>
-    <t>昇陽認證Java程式員</t>
+    <t>昇阳认证Java程式员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E8%AA%8D%E8%AD%89Java%E5%8A%A9%E7%90%86</t>
   </si>
   <si>
-    <t>昇陽認證Java助理</t>
+    <t>昇阳认证Java助理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SCJD</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E6%80%A7</t>
   </si>
   <si>
-    <t>隔離性</t>
+    <t>隔离性</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Durability_(database_systems)</t>
@@ -797,13 +794,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E6%93%9A%E5%BA%AB%E5%AE%8C%E6%95%B4%E6%80%A7</t>
   </si>
   <si>
-    <t>數據庫完整性</t>
+    <t>数据库完整性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94%E5%AE%8C%E6%95%B4%E6%80%A7</t>
   </si>
   <si>
-    <t>實體完整性</t>
+    <t>实体完整性</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Referential_integrity</t>
@@ -929,19 +926,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%AE%9A%E7%BE%A9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>資料定義語言</t>
+    <t>资料定义语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E6%93%8D%E7%B8%B1%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>資料操縱語言</t>
+    <t>资料操纵语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E6%8E%A7%E5%88%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>資料控制語言</t>
+    <t>资料控制语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%AF%A2_(SQL)</t>
@@ -1001,13 +998,13 @@
     <t>https://zh.wikipedia.org/wiki/SQL%E8%B3%87%E6%96%99%E9%9A%B1%E7%A2%BC%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>SQL資料隱碼攻擊</t>
+    <t>SQL资料隐码攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E6%95%B8%E5%8C%96%E6%9F%A5%E8%A9%A2</t>
   </si>
   <si>
-    <t>參數化查詢</t>
+    <t>参数化查询</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%B3%BB%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3456,7 +3453,7 @@
         <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3482,10 +3479,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3511,10 +3508,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3540,10 +3537,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3569,10 +3566,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3598,10 +3595,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3627,10 +3624,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3656,10 +3653,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3685,10 +3682,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3714,10 +3711,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3743,10 +3740,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -3772,10 +3769,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3801,10 +3798,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3830,10 +3827,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>142</v>
+      </c>
+      <c r="F84" t="s">
         <v>143</v>
-      </c>
-      <c r="F84" t="s">
-        <v>144</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3859,10 +3856,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3888,10 +3885,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3917,10 +3914,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3946,10 +3943,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3975,10 +3972,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4004,10 +4001,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4033,10 +4030,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4062,10 +4059,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4091,10 +4088,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4120,10 +4117,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4149,10 +4146,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4178,10 +4175,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -4207,10 +4204,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4236,10 +4233,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4265,10 +4262,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4323,10 +4320,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4352,10 +4349,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4381,10 +4378,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4410,10 +4407,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4439,10 +4436,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4468,10 +4465,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4497,10 +4494,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4526,10 +4523,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4555,10 +4552,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4584,10 +4581,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4613,10 +4610,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4642,10 +4639,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -4671,10 +4668,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4700,10 +4697,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4729,10 +4726,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4758,10 +4755,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4787,10 +4784,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4816,10 +4813,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4845,10 +4842,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -4874,10 +4871,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>20</v>
@@ -4903,10 +4900,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4932,10 +4929,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4961,10 +4958,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4990,10 +4987,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5019,10 +5016,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5048,10 +5045,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5077,10 +5074,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5106,10 +5103,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5135,10 +5132,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5164,10 +5161,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5193,10 +5190,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5222,10 +5219,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5251,10 +5248,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5280,10 +5277,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5309,10 +5306,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5338,10 +5335,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5367,10 +5364,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5396,10 +5393,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5425,10 +5422,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5454,10 +5451,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5483,10 +5480,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5512,10 +5509,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5541,10 +5538,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5570,10 +5567,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5599,10 +5596,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5628,10 +5625,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5657,10 +5654,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5686,10 +5683,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5715,10 +5712,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5744,10 +5741,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5773,10 +5770,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5802,10 +5799,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5831,10 +5828,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5860,10 +5857,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5889,10 +5886,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5918,10 +5915,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5947,10 +5944,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5976,10 +5973,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6005,10 +6002,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6034,10 +6031,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6063,10 +6060,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6092,10 +6089,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6121,10 +6118,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6150,10 +6147,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6179,10 +6176,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6208,10 +6205,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6237,10 +6234,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>302</v>
+      </c>
+      <c r="F167" t="s">
         <v>303</v>
-      </c>
-      <c r="F167" t="s">
-        <v>304</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6266,10 +6263,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
         <v>327</v>
-      </c>
-      <c r="F168" t="s">
-        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6295,10 +6292,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>328</v>
+      </c>
+      <c r="F169" t="s">
         <v>329</v>
-      </c>
-      <c r="F169" t="s">
-        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6324,10 +6321,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6353,10 +6350,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
         <v>333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6382,10 +6379,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" t="s">
         <v>335</v>
-      </c>
-      <c r="F172" t="s">
-        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6411,10 +6408,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" t="s">
-        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6440,10 +6437,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>300</v>
+      </c>
+      <c r="F174" t="s">
         <v>301</v>
-      </c>
-      <c r="F174" t="s">
-        <v>302</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6469,10 +6466,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6498,10 +6495,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6527,10 +6524,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6556,10 +6553,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
